--- a/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
+++ b/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
@@ -435,10 +435,10 @@
         <v>10.2</v>
       </c>
       <c r="C2">
-        <v>9.24414448957171</v>
+        <v>8.585855737948535</v>
       </c>
       <c r="D2">
-        <v>-9.37113245517931</v>
+        <v>-15.8249437456026</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <v>105.5</v>
       </c>
       <c r="C3">
-        <v>96.81727572719078</v>
+        <v>82.9132059861732</v>
       </c>
       <c r="D3">
-        <v>-8.230070400767037</v>
+        <v>-21.40928342542825</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <v>0.4014257279586957</v>
       </c>
       <c r="C4">
-        <v>0.1644880053851239</v>
+        <v>0.3490658503988659</v>
       </c>
       <c r="D4">
-        <v>-59.02405004742278</v>
+        <v>-13.04347826086956</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -477,10 +477,10 @@
         <v>1.54</v>
       </c>
       <c r="C5">
-        <v>1.300000108450071</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
-        <v>-15.58440854220322</v>
+        <v>-15.58441558441558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,10 +491,10 @@
         <v>2.8</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>2.80835415456922</v>
       </c>
       <c r="D6">
-        <v>-28.57142857142857</v>
+        <v>0.2983626631864387</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,10 +505,10 @@
         <v>16.3</v>
       </c>
       <c r="C7">
-        <v>15.57941235882045</v>
+        <v>16.83237069584096</v>
       </c>
       <c r="D7">
-        <v>-4.42078307472119</v>
+        <v>3.266077888594869</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,10 +519,10 @@
         <v>2.47</v>
       </c>
       <c r="C8">
-        <v>2.470000059604645</v>
+        <v>2.47</v>
       </c>
       <c r="D8">
-        <v>2.41314351317371E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>437904.3559815173</v>
+        <v>439370.9368292723</v>
       </c>
       <c r="C9">
-        <v>420795.6387374572</v>
+        <v>433091.7846329708</v>
       </c>
       <c r="D9">
-        <v>-3.906952970520846</v>
+        <v>-1.429123246433891</v>
       </c>
     </row>
   </sheetData>

--- a/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
+++ b/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
@@ -435,10 +435,10 @@
         <v>10.2</v>
       </c>
       <c r="C2">
-        <v>8.585855737948535</v>
+        <v>9.48451048087751</v>
       </c>
       <c r="D2">
-        <v>-15.8249437456026</v>
+        <v>-7.014603128651852</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <v>105.5</v>
       </c>
       <c r="C3">
-        <v>82.9132059861732</v>
+        <v>96.69694126667908</v>
       </c>
       <c r="D3">
-        <v>-21.40928342542825</v>
+        <v>-8.344131500778127</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -463,10 +463,10 @@
         <v>0.4014257279586957</v>
       </c>
       <c r="C4">
-        <v>0.3490658503988659</v>
+        <v>0.296705972839036</v>
       </c>
       <c r="D4">
-        <v>-13.04347826086956</v>
+        <v>-26.08695652173911</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -491,10 +491,10 @@
         <v>2.8</v>
       </c>
       <c r="C6">
-        <v>2.80835415456922</v>
+        <v>2.801795966115085</v>
       </c>
       <c r="D6">
-        <v>0.2983626631864387</v>
+        <v>0.06414164696731474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,10 +505,10 @@
         <v>16.3</v>
       </c>
       <c r="C7">
-        <v>16.83237069584096</v>
+        <v>17.0037481810236</v>
       </c>
       <c r="D7">
-        <v>3.266077888594869</v>
+        <v>4.317473503212263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -519,10 +519,10 @@
         <v>2.47</v>
       </c>
       <c r="C8">
-        <v>2.47</v>
+        <v>2.470000059604645</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2.41314351317371E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -530,13 +530,13 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>439370.9368292723</v>
+        <v>474577.0418196648</v>
       </c>
       <c r="C9">
-        <v>433091.7846329708</v>
+        <v>463577.6537561037</v>
       </c>
       <c r="D9">
-        <v>-1.429123246433891</v>
+        <v>-2.317724435507111</v>
       </c>
     </row>
   </sheetData>

--- a/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
+++ b/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
@@ -435,10 +435,10 @@
         <v>10.2</v>
       </c>
       <c r="C2">
-        <v>9.48451048087751</v>
+        <v>10.80787728184608</v>
       </c>
       <c r="D2">
-        <v>-7.014603128651852</v>
+        <v>5.959581194569456</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <v>105.5</v>
       </c>
       <c r="C3">
-        <v>96.69694126667908</v>
+        <v>97.64443233037426</v>
       </c>
       <c r="D3">
-        <v>-8.344131500778127</v>
+        <v>-7.44603570580639</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -477,10 +477,10 @@
         <v>1.54</v>
       </c>
       <c r="C5">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="D5">
-        <v>-15.58441558441558</v>
+        <v>-22.07792207792208</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,10 +491,10 @@
         <v>2.8</v>
       </c>
       <c r="C6">
-        <v>2.801795966115085</v>
+        <v>2.803306703089537</v>
       </c>
       <c r="D6">
-        <v>0.06414164696731474</v>
+        <v>0.1180965389120381</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,10 +505,10 @@
         <v>16.3</v>
       </c>
       <c r="C7">
-        <v>17.0037481810236</v>
+        <v>17.00195354565822</v>
       </c>
       <c r="D7">
-        <v>4.317473503212263</v>
+        <v>4.306463470295831</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -533,10 +533,10 @@
         <v>474577.0418196648</v>
       </c>
       <c r="C9">
-        <v>463577.6537561037</v>
+        <v>456032.7623008476</v>
       </c>
       <c r="D9">
-        <v>-2.317724435507111</v>
+        <v>-3.907538267698981</v>
       </c>
     </row>
   </sheetData>

--- a/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
+++ b/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
@@ -435,10 +435,10 @@
         <v>10.2</v>
       </c>
       <c r="C2">
-        <v>10.80787728184608</v>
+        <v>9.48451048087751</v>
       </c>
       <c r="D2">
-        <v>5.959581194569456</v>
+        <v>-7.014603128651852</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <v>105.5</v>
       </c>
       <c r="C3">
-        <v>97.64443233037426</v>
+        <v>96.69694126667908</v>
       </c>
       <c r="D3">
-        <v>-7.44603570580639</v>
+        <v>-8.344131500778127</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -477,10 +477,10 @@
         <v>1.54</v>
       </c>
       <c r="C5">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="D5">
-        <v>-22.07792207792208</v>
+        <v>-15.58441558441558</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -491,10 +491,10 @@
         <v>2.8</v>
       </c>
       <c r="C6">
-        <v>2.803306703089537</v>
+        <v>2.801795966115085</v>
       </c>
       <c r="D6">
-        <v>0.1180965389120381</v>
+        <v>0.06414164696731474</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -505,10 +505,10 @@
         <v>16.3</v>
       </c>
       <c r="C7">
-        <v>17.00195354565822</v>
+        <v>17.0037481810236</v>
       </c>
       <c r="D7">
-        <v>4.306463470295831</v>
+        <v>4.317473503212263</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -533,10 +533,10 @@
         <v>474577.0418196648</v>
       </c>
       <c r="C9">
-        <v>456032.7623008476</v>
+        <v>463577.6537561037</v>
       </c>
       <c r="D9">
-        <v>-3.907538267698981</v>
+        <v>-2.317724435507111</v>
       </c>
     </row>
   </sheetData>

--- a/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
+++ b/PRJ-23/Otimização/Resultados/Potimizacao.xlsx
@@ -516,13 +516,13 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>2.47</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>2.470000059604645</v>
+        <v>3.000000059604645</v>
       </c>
       <c r="D8">
-        <v>2.41314351317371E-06</v>
+        <v>1.986821492513021E-06</v>
       </c>
     </row>
     <row r="9" spans="1:4">
